--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54647.10695111989</v>
+        <v>10874774.28327284</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54647.10695111989</v>
+        <v>10874774.28327284</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4979.831944077579</v>
+        <v>784410.8284516518</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4979.831944077579</v>
+        <v>784410.8284516518</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419209526.876289</v>
+        <v>57774843.12299691</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11956.22033527217</v>
+        <v>1316603.472404341</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22945.39918054155</v>
+        <v>2481527.234711991</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33934.57802581093</v>
+        <v>3646450.997019642</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45307.80544668083</v>
+        <v>4790704.99533096</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56607.38699722498</v>
+        <v>5934439.26526232</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67906.96854776912</v>
+        <v>7078173.535193676</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79257.4641765198</v>
+        <v>8252552.812652837</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90560.44465375534</v>
+        <v>9417476.574960481</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101853.2130847258</v>
+        <v>10545719.23428198</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112992.8042797031</v>
+        <v>11710069.90421347</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>124126.8730260029</v>
+        <v>12874993.66652112</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135114.8190827813</v>
+        <v>14033361.6049904</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>146135.7089779435</v>
+        <v>15198285.36729806</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>157578.7650221669</v>
+        <v>16300889.72020299</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>169288.4552411937</v>
+        <v>17325848.62303283</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>348</v>
@@ -27052,13 +27052,13 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>343.0000000000559</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>52</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>75</v>
